--- a/Data/EC/NIT-9004858610.xlsx
+++ b/Data/EC/NIT-9004858610.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C40EECFB-3BA8-450E-885B-509E66DFE9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9404EB23-57C2-4474-B0D4-ADDBFF2907F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AD56438B-D3B7-47DF-9990-6FEF5346C857}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FEC4025D-BE68-416D-8FDA-D8D854689D2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,172 +71,172 @@
     <t>BELKIS ESPERANZA VERGARA PEREZ</t>
   </si>
   <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -650,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC65A0C-3575-9392-B21D-6BE7E2AB456D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A6698B-E247-0DC5-E035-A783E6BAB85C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B9152E-D119-4FC6-BC77-EE19CA58ACCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BB3EA7-359C-4335-9185-A0C6D8F00523}">
   <dimension ref="B2:J77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="G16" s="18">
         <v>3000000</v>
@@ -2444,7 +2444,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="24">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="G71" s="24">
         <v>3000000</v>

--- a/Data/EC/NIT-9004858610.xlsx
+++ b/Data/EC/NIT-9004858610.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9404EB23-57C2-4474-B0D4-ADDBFF2907F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E682C6A9-D69D-4DE1-B5C6-5A9FA7442CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FEC4025D-BE68-416D-8FDA-D8D854689D2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF1C88FB-75F6-43D8-97EA-4C9EC003326D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,172 +71,172 @@
     <t>BELKIS ESPERANZA VERGARA PEREZ</t>
   </si>
   <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -335,7 +335,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -348,9 +350,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -550,23 +550,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,10 +594,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A6698B-E247-0DC5-E035-A783E6BAB85C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7C62E1-7F18-B510-14F8-DF6DFE8D0667}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BB3EA7-359C-4335-9185-A0C6D8F00523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD72858B-25AC-4855-B97F-6BC443A60C2C}">
   <dimension ref="B2:J77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="G16" s="18">
         <v>3000000</v>
@@ -2444,7 +2444,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="24">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="G71" s="24">
         <v>3000000</v>
